--- a/接口文档.xlsx
+++ b/接口文档.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
   <si>
     <t>添加发布会</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,202 @@
   </si>
   <si>
     <t>嘉宾签到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加发布会接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/add_event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加发布会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eid 发布会id
+name 发布会标题
+limit 限制人数
+status 状态
+address 地址
+start_time 发布会时间(2016-08-12 12:00:00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'status':200,
+'message':'add event success'
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个状态码要有一条用例
+{'status':10021,'message':'parameter error'}
+{'status':10022,'message':'event id already exists'}
+{'status':10023,'message':'event name already exists'}
+{'status':10024,'message':'start_time format error.It must be in YYYY-MM-DD HH:MM:SS format.'}
+{'status':200,'message':'add event success'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布会查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/get_event_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eid 发布会id
+name 发布会名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "data": {
+    "start_time": "2016-12-10T14:00:00",
+    "name": "小米手机 6 发布会",
+    "limit": 2000,
+    "address": "北京水立方",
+    "status": true
+  },
+  "message": "success",
+  "status": 200
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'status':10021,'message':'parameter error'}
+{'status':10022,'message':'query result is empty'}
+{'status':200,'message':'success','data':datas}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eid 或name 两个参数二选一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加嘉宾接口</t>
+  </si>
+  <si>
+    <t>添加嘉宾接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/add_guest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eid 关联发布会id
+realname 姓名
+phone 手机号
+emial 邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'status':200,
+'message':'add guest success'
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'status':10021,'message':'parameter error'}
+{'status':10023,'message':'event status is not avaliable'}
+{'status':10024,'message':'event number is full'}
+{'status':10025,'message':'event has started'}
+{'status':10026,'message':'the event guest phone number repeat'}
+{'status':200,'message':'add guest success'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉宾查询接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉宾查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/get_guest_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eid 关联发布会id
+phone 嘉宾手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "data": [
+    {
+      "email": "david@mail.com",
+      "phone": "13800110005",
+      "realname": "david",
+      "sign": false
+    },
+    {
+      "email": "david@mail.com",
+      "phone": "13800110005",
+      "realname": "david",
+      "sign": false
+    },
+    {
+      "email": "david@mail.com",
+      "phone": "13800110005",
+      "realname": "david",
+      "sign": false
+    }
+   ],
+  "message": "success",
+  "status": 200
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'status':10021,'message':'eid cannot be empty'}
+{'status':10022,'message':'query result is empty'}
+{'status':200,'message':'success','data':datas}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉宾签到接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉宾签到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/user_sign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eid 发布会id
+phone 嘉宾手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'status':200,'message':'sign success'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":10021,'message':'parameter error'}
+{'status':10022,'message':'event id null'}
+{'status':10023,'message':'event status is not available'}
+{'status':10024,'message':'event has started'}
+{'status':10025,'message':'user phone null'}
+{'status':10026,'message':'user did not participate in the conference'}
+{'status':10027,'message':'uesr has sign in'}
+{'status':200,'message':'sign success'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -80,7 +276,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,16 +291,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -112,18 +322,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -425,324 +703,463 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C54" sqref="C50:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="98.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" t="s">
-        <v>4</v>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" t="s">
-        <v>5</v>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
-      <c r="B14" t="s">
-        <v>6</v>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="54" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" t="s">
+      <c r="C16" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="B17" t="s">
+      <c r="C17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="81" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18" t="s">
+      <c r="C18" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
-      <c r="B22" t="s">
-        <v>5</v>
+      <c r="B22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
-      <c r="B23" t="s">
-        <v>6</v>
+      <c r="B23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
-      <c r="B24" t="s">
-        <v>7</v>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-      <c r="B26" t="s">
+      <c r="C27" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2</v>
+      <c r="C28" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
-      <c r="B29" t="s">
-        <v>3</v>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
-      <c r="B31" t="s">
-        <v>5</v>
+      <c r="A31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
-      <c r="B32" t="s">
-        <v>6</v>
+      <c r="B32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="B33" t="s">
-        <v>7</v>
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
-      <c r="B34" t="s">
-        <v>8</v>
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="324" x14ac:dyDescent="0.15">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="1"/>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="1"/>
-      <c r="B38" t="s">
-        <v>3</v>
+      <c r="C38" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
-      <c r="B39" t="s">
-        <v>4</v>
+      <c r="B39" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="1"/>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="1"/>
-      <c r="B41" t="s">
-        <v>6</v>
+      <c r="A41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
-      <c r="B42" t="s">
-        <v>7</v>
+      <c r="B42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
-      <c r="B43" t="s">
-        <v>8</v>
+      <c r="B43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
-      <c r="B44" t="s">
-        <v>9</v>
+      <c r="B44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="108" x14ac:dyDescent="0.15">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="A1:A9"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="A28:A36"/>
-    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A40:C40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C24" r:id="rId2"/>
+    <hyperlink ref="C14" r:id="rId3"/>
+    <hyperlink ref="C34" r:id="rId4"/>
+    <hyperlink ref="C44" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>